--- a/阶段性重大事件/新冠肺炎疫情.xlsx
+++ b/阶段性重大事件/新冠肺炎疫情.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1095">
   <si>
     <t>习近平对新型冠状病毒感染的肺炎疫情作出重要指示 强调要把人民群众生命安全和身体健康放在第一位 坚决遏制疫情蔓延势头 李克强对新型冠状病毒感染的肺炎疫情作出批示</t>
   </si>
@@ -3301,6 +3301,18 @@
   </si>
   <si>
     <t>国际社会：中国抗疫经验非常重要</t>
+  </si>
+  <si>
+    <t>在武昌方舱医院里有一位患新冠肺炎的高三女孩，在舱内治疗的这些日子里，她每天坚持学习，备战高考，她说她的梦想是当一名老师。今年19岁的高三学生小付被确诊为新冠肺炎后，2月21日被收治到武昌方舱医院。虽然在高三的关键时期生病隔离，但小付并没有被挫折打倒。下午2点半，小付整理好书包去上下午的网课了，她上课的地方就是距她床位不足20米的医疗用品库房，这是医护人员特地为她整理的临时自习室，虽然稍显凌乱，可医护人员们给它起了一个非常好听的名字“梦开始的教室”。为了提醒自己，小付给自己制定了一个学习计划表贴在了床头。7点半早自习，网课上到中午12点，下午1点半开始预习，晚上9点40完成最后一节英语。小付说，有医务人员和大家的关爱和照顾，她现在每天都可以在“梦开始的教室”里按时上课。高考在即，小付说，她将为了梦想而战，不会放弃。</t>
+  </si>
+  <si>
+    <t>【新闻特写】方舱里的“梦想自习室”</t>
+  </si>
+  <si>
+    <t>方舱医院治疗的都是新冠肺炎的轻症患者，由于人数众多，医务人员十分辛苦。在武汉洪山体育馆方舱医院，一些身体康复较好的病友们自发组织起来协助医务人员分担工作，老张就是其中之一。这位正在帮助医生张罗事的人就是老张，2月5日因为确诊新冠肺炎入住方舱医院。老张的全名叫张兵，是武汉市公安局洪山区交通大队负责信访工作的民警。经过这一段的治疗和护理，他的病情逐渐好转，看着照顾自己的医护人员那么忙，老张也不想闲着。看到方舱医院保洁任务重，老张就和同住一个病区的老肖一起每天帮大家打扫、清运垃圾。老张他们的志愿服务也带动越来越多的病友加入到他们的行列。如今，老张已经建起了方舱医院病友群，组织党员病友率先实行分区管理，协助药品分发、病区保洁、收集解答病友提问等工作，减轻医护人员的负担。每到饭点都是他们最忙的时候。作为患者，老张非常清楚大家渴望康复的心情，为了缓解大家的焦虑，他们在病区整理出一个图书角，把社会捐赠的书籍放在一起供大家阅读，一点点康复的日子在书本间度过。</t>
+  </si>
+  <si>
+    <t>【新闻特写】闲不住的老张</t>
   </si>
 </sst>
 </file>
@@ -3645,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D561"/>
+  <dimension ref="A1:D563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="B556" sqref="B556"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6903,13 +6915,13 @@
     </row>
     <row r="296" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>20200222</v>
+        <v>20200221</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>493</v>
+        <v>1094</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>494</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="297" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6917,10 +6929,10 @@
         <v>20200222</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>332</v>
+        <v>493</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6928,10 +6940,10 @@
         <v>20200222</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>500</v>
+        <v>332</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -6939,10 +6951,10 @@
         <v>20200222</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -6950,10 +6962,10 @@
         <v>20200222</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="301" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6961,10 +6973,10 @@
         <v>20200222</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>617</v>
+        <v>504</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>618</v>
+        <v>505</v>
       </c>
     </row>
     <row r="302" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6972,10 +6984,10 @@
         <v>20200222</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>496</v>
+        <v>617</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>497</v>
+        <v>618</v>
       </c>
     </row>
     <row r="303" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6983,21 +6995,21 @@
         <v>20200222</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="304" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>20200223</v>
+        <v>20200222</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="305" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7005,10 +7017,10 @@
         <v>20200223</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="306" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7016,10 +7028,10 @@
         <v>20200223</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="307" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7027,10 +7039,10 @@
         <v>20200223</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="308" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7038,10 +7050,10 @@
         <v>20200223</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="309" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7049,10 +7061,10 @@
         <v>20200223</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -7060,10 +7072,10 @@
         <v>20200223</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="311" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7071,10 +7083,10 @@
         <v>20200223</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -7082,10 +7094,10 @@
         <v>20200223</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="313" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7093,10 +7105,10 @@
         <v>20200223</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="314" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7104,10 +7116,10 @@
         <v>20200223</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="315" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7115,21 +7127,21 @@
         <v>20200223</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="316" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>20200224</v>
+        <v>20200223</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="317" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7137,10 +7149,10 @@
         <v>20200224</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="318" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7148,10 +7160,10 @@
         <v>20200224</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="319" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7159,10 +7171,10 @@
         <v>20200224</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="320" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7170,10 +7182,10 @@
         <v>20200224</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="321" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7181,10 +7193,10 @@
         <v>20200224</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="322" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7192,10 +7204,10 @@
         <v>20200224</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -7203,10 +7215,10 @@
         <v>20200224</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="324" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7214,10 +7226,10 @@
         <v>20200224</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="325" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7225,10 +7237,10 @@
         <v>20200224</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>619</v>
+        <v>548</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>620</v>
+        <v>549</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -7236,10 +7248,10 @@
         <v>20200224</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>901</v>
+        <v>620</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -7247,10 +7259,10 @@
         <v>20200224</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>622</v>
+        <v>901</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -7258,21 +7270,21 @@
         <v>20200224</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
     </row>
     <row r="329" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>20200225</v>
+        <v>20200224</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="330" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7280,10 +7292,10 @@
         <v>20200225</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="331" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7291,10 +7303,10 @@
         <v>20200225</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="332" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7302,10 +7314,10 @@
         <v>20200225</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="333" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7313,10 +7325,10 @@
         <v>20200225</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -7324,10 +7336,10 @@
         <v>20200225</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>332</v>
+        <v>558</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="335" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7335,10 +7347,10 @@
         <v>20200225</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>561</v>
+        <v>332</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -7346,10 +7358,10 @@
         <v>20200225</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -7357,21 +7369,21 @@
         <v>20200225</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="338" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>20200226</v>
+        <v>20200225</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>628</v>
+        <v>568</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -7379,10 +7391,10 @@
         <v>20200226</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -7390,10 +7402,10 @@
         <v>20200226</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -7401,10 +7413,10 @@
         <v>20200226</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -7412,10 +7424,10 @@
         <v>20200226</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -7423,10 +7435,10 @@
         <v>20200226</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -7434,10 +7446,10 @@
         <v>20200226</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -7445,10 +7457,10 @@
         <v>20200226</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="346" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7456,10 +7468,10 @@
         <v>20200226</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="347" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7467,10 +7479,10 @@
         <v>20200226</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -7478,10 +7490,10 @@
         <v>20200226</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -7489,10 +7501,10 @@
         <v>20200226</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -7500,10 +7512,10 @@
         <v>20200226</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -7511,21 +7523,21 @@
         <v>20200226</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>902</v>
+        <v>625</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>903</v>
+        <v>626</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>20200227</v>
+        <v>20200226</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>653</v>
+        <v>902</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>654</v>
+        <v>903</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -7533,10 +7545,10 @@
         <v>20200227</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -7544,10 +7556,10 @@
         <v>20200227</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -7555,10 +7567,10 @@
         <v>20200227</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -7566,10 +7578,10 @@
         <v>20200227</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>904</v>
+        <v>651</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>905</v>
+        <v>652</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -7577,10 +7589,10 @@
         <v>20200227</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>332</v>
+        <v>904</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>969</v>
+        <v>905</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -7588,10 +7600,10 @@
         <v>20200227</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>968</v>
+        <v>332</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -7599,10 +7611,10 @@
         <v>20200227</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -7610,21 +7622,21 @@
         <v>20200227</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>20200228</v>
+        <v>20200227</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>660</v>
+        <v>971</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>659</v>
+        <v>970</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -7632,10 +7644,10 @@
         <v>20200228</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -7643,10 +7655,10 @@
         <v>20200228</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -7654,10 +7666,10 @@
         <v>20200228</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -7665,10 +7677,10 @@
         <v>20200228</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -7676,10 +7688,10 @@
         <v>20200228</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -7687,10 +7699,10 @@
         <v>20200228</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -7698,10 +7710,10 @@
         <v>20200228</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D368" s="1"/>
     </row>
@@ -7710,10 +7722,10 @@
         <v>20200228</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -7721,10 +7733,10 @@
         <v>20200228</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="371" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7732,10 +7744,10 @@
         <v>20200228</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>906</v>
+        <v>677</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>907</v>
+        <v>678</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -7743,21 +7755,21 @@
         <v>20200228</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>20200229</v>
+        <v>20200228</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>682</v>
+        <v>908</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>681</v>
+        <v>909</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -7765,10 +7777,10 @@
         <v>20200229</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -7776,10 +7788,10 @@
         <v>20200229</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -7787,10 +7799,10 @@
         <v>20200229</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -7798,10 +7810,10 @@
         <v>20200229</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>221</v>
+        <v>686</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -7809,10 +7821,10 @@
         <v>20200229</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>689</v>
+        <v>221</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -7820,10 +7832,10 @@
         <v>20200229</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -7831,10 +7843,10 @@
         <v>20200229</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>910</v>
+        <v>691</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>911</v>
+        <v>690</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -7842,21 +7854,21 @@
         <v>20200229</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>20200301</v>
+        <v>20200229</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>693</v>
+        <v>912</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>692</v>
+        <v>913</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -7864,10 +7876,10 @@
         <v>20200301</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -7875,10 +7887,10 @@
         <v>20200301</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="385" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7886,10 +7898,10 @@
         <v>20200301</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="386" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7897,10 +7909,10 @@
         <v>20200301</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="387" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7908,10 +7920,10 @@
         <v>20200301</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="388" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7919,10 +7931,10 @@
         <v>20200301</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -7930,10 +7942,10 @@
         <v>20200301</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -7941,32 +7953,32 @@
         <v>20200301</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>914</v>
+        <v>707</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>915</v>
+        <v>706</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>20200302</v>
+        <v>20200301</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>714</v>
+        <v>914</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>713</v>
+        <v>915</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>20200302</v>
+        <v>20200301</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>711</v>
+        <v>1092</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>710</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -7974,10 +7986,10 @@
         <v>20200302</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -7985,10 +7997,10 @@
         <v>20200302</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -7996,10 +8008,10 @@
         <v>20200302</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -8007,7 +8019,10 @@
         <v>20200302</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -8015,10 +8030,10 @@
         <v>20200302</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -8026,10 +8041,7 @@
         <v>20200302</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -8037,10 +8049,10 @@
         <v>20200302</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>651</v>
+        <v>720</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -8048,10 +8060,10 @@
         <v>20200302</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>916</v>
+        <v>723</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>917</v>
+        <v>722</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -8059,32 +8071,32 @@
         <v>20200302</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>918</v>
+        <v>651</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>919</v>
+        <v>712</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>20200303</v>
+        <v>20200302</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>724</v>
+        <v>916</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>725</v>
+        <v>917</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>20200303</v>
+        <v>20200302</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>727</v>
+        <v>918</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>726</v>
+        <v>919</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -8092,10 +8104,10 @@
         <v>20200303</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -8103,10 +8115,10 @@
         <v>20200303</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -8114,10 +8126,10 @@
         <v>20200303</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -8125,10 +8137,10 @@
         <v>20200303</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>920</v>
+        <v>731</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>921</v>
+        <v>730</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -8136,10 +8148,10 @@
         <v>20200303</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>922</v>
+        <v>733</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>923</v>
+        <v>732</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -8147,32 +8159,32 @@
         <v>20200303</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>20200304</v>
+        <v>20200303</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>737</v>
+        <v>922</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>736</v>
+        <v>923</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>20200304</v>
+        <v>20200303</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>735</v>
+        <v>924</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>734</v>
+        <v>925</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -8180,10 +8192,10 @@
         <v>20200304</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -8191,10 +8203,10 @@
         <v>20200304</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -8202,10 +8214,10 @@
         <v>20200304</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -8213,10 +8225,10 @@
         <v>20200304</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -8224,10 +8236,10 @@
         <v>20200304</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -8235,10 +8247,10 @@
         <v>20200304</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -8246,10 +8258,10 @@
         <v>20200304</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -8257,32 +8269,32 @@
         <v>20200304</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>926</v>
+        <v>743</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>927</v>
+        <v>742</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>20200305</v>
+        <v>20200304</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>20200305</v>
+        <v>20200304</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>757</v>
+        <v>926</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>756</v>
+        <v>927</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -8290,10 +8302,10 @@
         <v>20200305</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -8301,10 +8313,10 @@
         <v>20200305</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -8312,10 +8324,10 @@
         <v>20200305</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -8323,10 +8335,10 @@
         <v>20200305</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -8334,10 +8346,10 @@
         <v>20200305</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -8345,19 +8357,21 @@
         <v>20200305</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C427" s="1"/>
+        <v>763</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>20200305</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -8365,21 +8379,19 @@
         <v>20200305</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>929</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="C429" s="1"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>20200305</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>930</v>
+        <v>765</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>931</v>
+        <v>764</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -8387,32 +8399,32 @@
         <v>20200305</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>20200306</v>
+        <v>20200305</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>774</v>
+        <v>930</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>773</v>
+        <v>931</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>20200306</v>
+        <v>20200305</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>772</v>
+        <v>932</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>771</v>
+        <v>933</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -8420,10 +8432,10 @@
         <v>20200306</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -8431,10 +8443,10 @@
         <v>20200306</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -8442,10 +8454,10 @@
         <v>20200306</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -8453,10 +8465,10 @@
         <v>20200306</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -8464,10 +8476,10 @@
         <v>20200306</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -8475,10 +8487,10 @@
         <v>20200306</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -8486,32 +8498,32 @@
         <v>20200306</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>934</v>
+        <v>784</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>935</v>
+        <v>783</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>20200307</v>
+        <v>20200306</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>20200307</v>
+        <v>20200306</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>790</v>
+        <v>934</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>789</v>
+        <v>935</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -8519,10 +8531,10 @@
         <v>20200307</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -8530,10 +8542,10 @@
         <v>20200307</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="445" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8541,10 +8553,10 @@
         <v>20200307</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="446" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8552,10 +8564,10 @@
         <v>20200307</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="447" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8563,10 +8575,10 @@
         <v>20200307</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="448" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8574,10 +8586,10 @@
         <v>20200307</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="449" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8585,10 +8597,10 @@
         <v>20200307</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="450" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8596,10 +8608,10 @@
         <v>20200307</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>936</v>
+        <v>803</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>937</v>
+        <v>802</v>
       </c>
     </row>
     <row r="451" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8607,10 +8619,10 @@
         <v>20200307</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>938</v>
+        <v>801</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>939</v>
+        <v>800</v>
       </c>
     </row>
     <row r="452" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8618,32 +8630,32 @@
         <v>20200307</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="453" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>20200308</v>
+        <v>20200307</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>807</v>
+        <v>938</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>806</v>
+        <v>939</v>
       </c>
     </row>
     <row r="454" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>20200308</v>
+        <v>20200307</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>805</v>
+        <v>940</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>804</v>
+        <v>941</v>
       </c>
     </row>
     <row r="455" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8651,10 +8663,10 @@
         <v>20200308</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="456" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8662,10 +8674,10 @@
         <v>20200308</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="457" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8673,10 +8685,10 @@
         <v>20200308</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="458" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8684,10 +8696,10 @@
         <v>20200308</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="459" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8695,10 +8707,10 @@
         <v>20200308</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="460" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8706,10 +8718,10 @@
         <v>20200308</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -8717,10 +8729,10 @@
         <v>20200308</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>942</v>
+        <v>817</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>943</v>
+        <v>816</v>
       </c>
     </row>
     <row r="462" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8728,10 +8740,10 @@
         <v>20200308</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>944</v>
+        <v>815</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>945</v>
+        <v>814</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -8739,32 +8751,32 @@
         <v>20200308</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>332</v>
+        <v>942</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>20200309</v>
+        <v>20200308</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>821</v>
+        <v>944</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>820</v>
+        <v>945</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>20200309</v>
+        <v>20200308</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>829</v>
+        <v>332</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>828</v>
+        <v>966</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -8772,10 +8784,10 @@
         <v>20200309</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="467" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8783,10 +8795,10 @@
         <v>20200309</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="468" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8794,10 +8806,10 @@
         <v>20200309</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="469" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8805,10 +8817,10 @@
         <v>20200309</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="470" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8816,10 +8828,10 @@
         <v>20200309</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="471" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8827,10 +8839,10 @@
         <v>20200309</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
     </row>
     <row r="472" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8838,10 +8850,10 @@
         <v>20200309</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>946</v>
+        <v>831</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>947</v>
+        <v>830</v>
       </c>
     </row>
     <row r="473" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8849,10 +8861,10 @@
         <v>20200309</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>948</v>
+        <v>823</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>949</v>
+        <v>822</v>
       </c>
     </row>
     <row r="474" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8860,29 +8872,32 @@
         <v>20200309</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="475" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>20200310</v>
+        <v>20200309</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>838</v>
+        <v>948</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="476" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>20200310</v>
+        <v>20200309</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>837</v>
+        <v>950</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>836</v>
+        <v>951</v>
       </c>
     </row>
     <row r="477" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8890,10 +8905,7 @@
         <v>20200310</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="478" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8901,10 +8913,10 @@
         <v>20200310</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="479" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8912,10 +8924,10 @@
         <v>20200310</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="480" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8923,10 +8935,10 @@
         <v>20200310</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="481" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8934,10 +8946,10 @@
         <v>20200310</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="482" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8945,32 +8957,32 @@
         <v>20200310</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>952</v>
+        <v>846</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>953</v>
+        <v>845</v>
       </c>
     </row>
     <row r="483" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>20200311</v>
+        <v>20200310</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="484" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>20200311</v>
+        <v>20200310</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>852</v>
+        <v>952</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>851</v>
+        <v>953</v>
       </c>
     </row>
     <row r="485" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8978,10 +8990,10 @@
         <v>20200311</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="486" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8989,10 +9001,10 @@
         <v>20200311</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="487" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9000,10 +9012,10 @@
         <v>20200311</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="488" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9011,10 +9023,10 @@
         <v>20200311</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="489" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9022,10 +9034,10 @@
         <v>20200311</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="490" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9033,10 +9045,10 @@
         <v>20200311</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>954</v>
+        <v>862</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>955</v>
+        <v>861</v>
       </c>
     </row>
     <row r="491" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9044,10 +9056,10 @@
         <v>20200311</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>956</v>
+        <v>860</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>957</v>
+        <v>859</v>
       </c>
     </row>
     <row r="492" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9055,10 +9067,10 @@
         <v>20200311</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="493" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9066,32 +9078,32 @@
         <v>20200311</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="494" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>20200312</v>
+        <v>20200311</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>864</v>
+        <v>958</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>863</v>
+        <v>959</v>
       </c>
     </row>
     <row r="495" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>20200312</v>
+        <v>20200311</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>867</v>
+        <v>965</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>868</v>
+        <v>964</v>
       </c>
     </row>
     <row r="496" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9099,10 +9111,10 @@
         <v>20200312</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="497" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9110,10 +9122,10 @@
         <v>20200312</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="498" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9121,10 +9133,10 @@
         <v>20200312</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="499" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9132,10 +9144,10 @@
         <v>20200312</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="500" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9143,10 +9155,10 @@
         <v>20200312</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
     </row>
     <row r="501" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9154,10 +9166,10 @@
         <v>20200312</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>960</v>
+        <v>874</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>961</v>
+        <v>873</v>
       </c>
     </row>
     <row r="502" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9165,32 +9177,32 @@
         <v>20200312</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>962</v>
+        <v>866</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>963</v>
+        <v>865</v>
       </c>
     </row>
     <row r="503" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>20200313</v>
+        <v>20200312</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
     </row>
     <row r="504" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>20200313</v>
+        <v>20200312</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
     </row>
     <row r="505" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9198,10 +9210,10 @@
         <v>20200313</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="506" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9209,10 +9221,10 @@
         <v>20200313</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="507" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9220,10 +9232,10 @@
         <v>20200313</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="508" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9231,10 +9243,10 @@
         <v>20200313</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="509" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9242,10 +9254,10 @@
         <v>20200313</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="510" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9253,10 +9265,10 @@
         <v>20200313</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="511" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9264,32 +9276,32 @@
         <v>20200313</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="512" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>20200314</v>
+        <v>20200313</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="513" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>20200314</v>
+        <v>20200313</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="514" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9297,10 +9309,10 @@
         <v>20200314</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
     </row>
     <row r="515" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9308,10 +9320,10 @@
         <v>20200314</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -9319,10 +9331,10 @@
         <v>20200314</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9330,10 +9342,10 @@
         <v>20200314</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9341,32 +9353,32 @@
         <v>20200314</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>20200315</v>
+        <v>20200314</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>20200315</v>
+        <v>20200314</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9374,10 +9386,10 @@
         <v>20200315</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9385,10 +9397,10 @@
         <v>20200315</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>332</v>
+        <v>1014</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -9396,10 +9408,10 @@
         <v>20200315</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -9407,10 +9419,10 @@
         <v>20200315</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1020</v>
+        <v>332</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -9418,10 +9430,10 @@
         <v>20200315</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -9429,32 +9441,32 @@
         <v>20200315</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>20200316</v>
+        <v>20200315</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>20200316</v>
+        <v>20200315</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -9462,10 +9474,10 @@
         <v>20200316</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -9473,10 +9485,10 @@
         <v>20200316</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -9484,10 +9496,10 @@
         <v>20200316</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -9495,10 +9507,10 @@
         <v>20200316</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -9506,10 +9518,10 @@
         <v>20200316</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -9517,10 +9529,10 @@
         <v>20200316</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -9528,10 +9540,10 @@
         <v>20200316</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -9539,10 +9551,10 @@
         <v>20200316</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -9550,10 +9562,10 @@
         <v>20200316</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -9561,32 +9573,32 @@
         <v>20200316</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>20200317</v>
+        <v>20200316</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>20200317</v>
+        <v>20200316</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -9594,10 +9606,10 @@
         <v>20200317</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -9605,10 +9617,10 @@
         <v>20200317</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -9616,10 +9628,10 @@
         <v>20200317</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -9627,10 +9639,10 @@
         <v>20200317</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -9638,10 +9650,10 @@
         <v>20200317</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -9649,32 +9661,32 @@
         <v>20200317</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
-        <v>20200318</v>
+        <v>20200317</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
-        <v>20200318</v>
+        <v>20200317</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -9682,10 +9694,10 @@
         <v>20200318</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -9693,10 +9705,10 @@
         <v>20200318</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -9704,32 +9716,32 @@
         <v>20200318</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
-        <v>20200319</v>
+        <v>20200318</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
-        <v>20200319</v>
+        <v>20200318</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -9737,10 +9749,10 @@
         <v>20200319</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -9748,10 +9760,10 @@
         <v>20200319</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -9759,10 +9771,10 @@
         <v>20200319</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -9770,10 +9782,10 @@
         <v>20200319</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -9781,10 +9793,10 @@
         <v>20200319</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -9792,10 +9804,10 @@
         <v>20200319</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -9803,10 +9815,10 @@
         <v>20200319</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -9814,16 +9826,38 @@
         <v>20200319</v>
       </c>
       <c r="B561" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>20200319</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>20200319</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="C561" s="1" t="s">
+      <c r="C563" s="1" t="s">
         <v>1087</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C511"/>
-  <sortState ref="A2:C520">
-    <sortCondition ref="A502"/>
+  <sortState ref="A2:C563">
+    <sortCondition ref="A541"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阶段性重大事件/新冠肺炎疫情.xlsx
+++ b/阶段性重大事件/新冠肺炎疫情.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1199">
   <si>
     <t>习近平对新型冠状病毒感染的肺炎疫情作出重要指示 强调要把人民群众生命安全和身体健康放在第一位 坚决遏制疫情蔓延势头 李克强对新型冠状病毒感染的肺炎疫情作出批示</t>
   </si>
@@ -3313,6 +3313,318 @@
   </si>
   <si>
     <t>【新闻特写】闲不住的老张</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：全国大部地区疫情已呈低风险 境外疫情输入需严控</t>
+  </si>
+  <si>
+    <t>今天（3月22日），国务院联防联控机制新闻发布会介绍了疫情的最新情况，以及保障春耕工作的相关情况。截至3月21日24时，31个省（区、市）和新疆生产建设兵团累计报告确诊病例81054例，其中累计报告境外输入确诊病例314例；当日新增确诊病例46例（其中当日新增境外输入确诊病例45例，新增本土确诊病例1例，为广东省报告的境外输入关联病例）；现有确诊病例5549例，其中重症病例1845例；累计死亡病例3261例，当日新增6例（其中湖北5例）；累计治愈出院病例72244例，当日新增504例；现有疑似病例118例，当日新增45例；3月21日0—24时，湖北无新增确诊病例，无新增疑似病例，无现有疑似病例。农业农村部介绍，已经在全国范围内启动了农业物资打假行动，重点查处非法添加、侵权假冒等问题。各级公安机关侦办了一批农资犯罪案件。交通运输部正有序恢复道路运输秩序，全力做好化肥、农药等春耕生产物资的运输保障工作。</t>
+  </si>
+  <si>
+    <t>随着世界范围内新冠肺炎疫情的快速蔓延，昨天（3月21日），意大利、德国等国家的医疗机构和武汉医护人员进行视频连线，共享中国疫情防控所取得的经验。目前，意大利国家老年医疗与科学研究院收治了46位高龄新冠肺炎患者，平均年龄85岁。武汉市第一医院在这次抗疫过程中，治愈出院60岁以上患者545人、80岁以上患者64人，在高龄和超高龄患者的诊断救治方面积累了宝贵的经验。通过视频连线，中方专家介绍了老年患者新冠肺炎检测标准，以及如何结合基础病、合并症情况，进行分层管理、科学救治。意方专家表示，在共同抗击新冠肺炎疫情的关键时刻，中国专家团队伸出援手、分享经验，对意大利新冠肺炎临床诊断治疗和疫情整体防控有着重要意义。武汉协和医院和德国杜伊斯堡-埃森大学医学院有着20多年的合作交流史。目前，双方已就体外膜肺氧合仪（ECMO）的使用、医务人员防护等相关问题，进行了两次视频连线。</t>
+  </si>
+  <si>
+    <t>携手共抗疫情 向世界分享中国抗疫经验</t>
+  </si>
+  <si>
+    <t>眼下，武汉市的新冠肺炎重症病例已经下降至2000例以下，如何继续加强重症患者的医疗救治，努力提高治愈率、降低病亡率是当前救治工作的重中之重。今天（3月22日）的《一线抗疫群英谱》我们就一起来认识一位重症医生马承恩。在华中科技大学同济医院光谷院区重症病区，患者老徐不仅双肺感染严重，还伴有高血压、心脏病等多种基础病，好几次都在死亡线上挣扎。气管插管、血液透析、心肌恢复，一周多的时间，山东大学第二医院援助湖北国家医疗队队长马承恩带领队友进行了三次大抢救，老徐终于转危为安。为了赶在患者病情恶化前提前介入，马承恩经常连续六七个小时在病区，查看、监测病人情况，上呼吸机，穿着厚厚的防护服，马承恩始终奋战在救治一线。别人轮休的时候，他还要参加疑难病例讨论、会诊。在马承恩和队友们的努力下，截至目前，他们已累计治愈患者46人。</t>
+  </si>
+  <si>
+    <t>【一线抗疫群英谱】马承恩：坚守到最后一名患者出院</t>
+  </si>
+  <si>
+    <t>世界卫生组织21日发布的最新数据显示，全球新冠肺炎死亡病例超过1万例，达到11201例。当天，多国继续升级防控措施。世卫组织统计数据显示，截至北京时间22日凌晨1时，全球累计新冠肺炎确诊病例267013例，死亡11201例，目前全球已有184个国家和地区出现新冠肺炎病例。多国继续升级疫情防控措施在欧洲国家中，意大利的形势最为严峻。截至北京时间22日凌晨1时，意大利累计确诊病例达到53578例，单日新增6557例。21日晚，疫情最严重的伦巴第大区政府颁布了意大利现行最严格的疫情防控条例，包括停止基本保障之外的几乎所有办公、商业活动；关闭除食品销售、报刊亭、药店外所有经营场所；禁止在公共场所聚集，违者最高罚款5000欧元等。西班牙各地正加紧建设野战医院。马德里会展中心正在加紧施工，计划改建成拥有5500张病床的医院。马德里市政府继续征用酒店作为轻症患者的隔离场所，目前有40家酒店可提供总计9000个床位。根据美国约翰斯·霍普金斯大学发布的统计数据，截至北京时间22日11时13分，美国累计新冠肺炎确诊病例升至26747例，其中纽约州的累计确诊病例达到11675例，为美国首个累计确诊病例破万的州。纽约州州长科莫21日表示，纽约州已经测试了超过45000例疑似病例，预计纽约州40%到80%的人群将受到新冠病毒影响，且疫情将会持续数月。伊朗总统鲁哈尼21日在抗击新冠肺炎疫情工作会议上表示，尽管目前正值伊朗新年诺鲁孜节，但未来15天，全国民众除特别必要情况外应该避免外出。韩国政府宣布，从当地时间22日零时起，对自欧洲入境的所有旅客进行新冠病毒检测，以尽量避免欧洲输入新冠病毒感染病例。澳大利亚总理：大量输入病例来自美国澳大利亚总理莫里森20日在接受一家电台连线采访时表示，在澳大利亚确诊病例中，大约80%是海外输入型病例或其接触者，由于与美国间人员流动频繁，其中大量病例来自美国。当晚，澳大利亚禁止所有外国人入境的旅行禁令生效。</t>
+  </si>
+  <si>
+    <t>世卫组织：全球新冠肺炎死亡病例过万例</t>
+  </si>
+  <si>
+    <t>随着新冠肺炎疫情在多国多点暴发，中国向全球分享抗击疫情的经验，并向一些国家提供了医疗救援物资，多国对此表示赞赏和感谢。哥斯达黎加总统卡洛斯·阿尔瓦拉多20日在社交媒体上发文说，哥斯达黎加感谢中国分享应对新冠肺炎的经验。国际对话与协调对于我们更好地应对这一新型病毒至关重要。澳大利亚国立大学东亚经济研究所所长彼得·德赖斯代尔表示，湖北新增确诊病例连续多天“零报告”，给其他正在抗击疫情的国家和地区带来希望。新加坡国际事务研究所高级研究学者胡逸山说，中国在防控疫情方面采取了最佳举措，并在扭转疫情后的短时间内向其他国家提供援助，为全球抗疫合作开了好头。塞尔维亚总统迎接中国抗疫专家组抵塞塞尔维亚当地时间21日晚上，中国援助塞尔维亚抗疫医疗专家组搭乘的专机抵达贝尔格莱德，塞尔维亚总统武契奇和多位政府官员到机场迎接。武契奇在致辞中对中国的帮助给予高度评价，并对中国领导人、中国共产党以及中国人民表示感谢。他说，对塞尔维亚而言，中国专家组和医疗物资“极为重要”，可以“挽救生命”。在塞尔维亚最为困难的时刻，中国表现出了友谊。中国赴塞尔维亚抗疫专家组共有6人，来自广东省多家医院，包括传染病防治、呼吸与危重症等专业。专家组表示，将以科学严谨的态度协助塞尔维亚抗击疫情，坚决完成援助任务。近日，中国也分别向法国、希腊、韩国、菲律宾等多国提供了医疗援助，多国政府表达了对中方团结一致抗击疫情的感谢。</t>
+  </si>
+  <si>
+    <t>多国人士赞赏中国向世界分享抗疫经验</t>
+  </si>
+  <si>
+    <t>23日，中共中央政治局常委、国务院总理、中央应对新冠肺炎疫情工作领导小组组长李克强主持召开领导小组会议。中共中央政治局常委、中央应对新冠肺炎疫情工作领导小组副组长王沪宁出席。会议指出，要认真贯彻习近平总书记重要讲话精神，落实中央应对疫情工作领导小组部署，统筹抓好疫情防控和经济社会发展。当前，以武汉为主战场的全国本土疫情传播基本阻断，但零星散发病例和局部暴发疫情风险仍然存在，结合全球疫情大流行形势，要实行“外防输入、内防反弹”防控策略。武汉和湖北要做好重症患者救治，及时收治新发病例。各地要坚持实事求是、公开透明发布信息，不得瞒报漏报，一旦发现疫情要精准管控，控制在病例发生和可能传播的场所。精准有效防范疫情跨境输入输出，为国际社会抗击疫情提供力所能及帮助。我驻外使领馆和有关方面要着力做好对我境外公民的领事保护和疫情防护帮扶。会议指出，持续低风险的全国绝大多数省份，要在科学精准防控同时，及时取消与正常生产生活秩序不适应的防控措施。不得以审批等延缓企业复工。除对来自高风险和中风险地区人员外，对其他人员不实施上岗前隔离。压实地方和单位责任，做好工作场所防控和员工防护。各地要保留发热门诊等制度，保持应急处置能力，做到“四早”。会议要求，国务院联防联控机制要指导各地与湖北对接，安全有序做好外地滞留在鄂人员返乡等工作。领导小组成员丁薛祥、黄坤明、蔡奇、王毅、肖捷、赵克志参加。</t>
+  </si>
+  <si>
+    <t>李克强主持召开中央应对新冠肺炎疫情工作领导小组会议 针对疫情变化部署外防输入内防反弹措施 在有效防控疫情同时积极有序推进复工复产</t>
+  </si>
+  <si>
+    <t>为深入贯彻习近平总书记重要指示精神，落实中央应对疫情工作领导小组部署，23日，中共中央政治局委员、国务院副总理、中央指导组组长孙春兰率中央指导组先后来到湖北省妇幼保健院、武汉市第三人民医院首义院区、武汉市水果湖街社区卫生服务中心，调研指导有序恢复正常医疗秩序和做好社区卫生服务工作。孙春兰实地查看病房设施，看望慰问一线医务人员，听取医院关于有序恢复正常医疗秩序的情况汇报，详细了解社区防控救治情况和开展互联网医疗服务的具体举措。她指出，当前疫情防控形势持续向好，要在抓紧抓实抓细防控和救治的基础上，统筹做好非新冠肺炎患者医疗救治工作，根据医疗机构的功能、定位、类别，及时有序恢复诊疗服务，确保人民群众生命安全和身体健康。孙春兰强调，要加强医疗资源和医护力量统筹调配，做好预检分诊，进行分类救治，确保非新冠肺炎患者的就诊安全。要加强精细化管理，优化医疗服务举措，有序开放相关科室的日常诊疗服务，进一步做好孕产妇、新生儿、老年人等特殊群体的医疗保障工作，保障患者就医需求。要鼓励开展“互联网+医疗”，逐步恢复社区卫生服务功能，将诊断和治疗方案明确的患者引导到基层医疗机构就近就诊，落实分级诊疗和家庭医生社区健康负责制，做好社区群众心理疏导，深化医防结合，推动爱国卫生运动和健康中国行动有机结合、深入开展。</t>
+  </si>
+  <si>
+    <t>中央指导组：毫不放松疫情防控 有序恢复正常医疗秩序</t>
+  </si>
+  <si>
+    <t>今天（3月23日），国务院联防联控机制新闻发布会介绍了疫情最新情况，以及依法防控境外疫情输入的最新情况。截至3月22日24时，31个省（区、市）和新疆生产建设兵团累计报告确诊病例81093例，其中累计报告境外输入确诊病例353例；当日新增确诊病例39例，全部为境外输入病例；现有确诊病例5120例，其中重症病例1749例；累计死亡病例3270例，当日新增9例（全部为湖北病例）；累计治愈出院病例72703例，当日新增459例；现有疑似病例136例，当日新增47例；3月22日0-24时，湖北无新增确诊病例，无新增疑似病例，无现有疑似病例。海关总署、民用航空局等部门介绍，已经对来自口岸重点防控国家的交通工具全面进行风险布控，所有出入境人员必须进行健康申报，严格实施口岸检疫措施，对不如实填报信息、不履行规定手续的外国人，将不准入境。</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：湖北连续5天无新增确诊病例和疑似病例</t>
+  </si>
+  <si>
+    <t>国务院新闻办公室今天（3月23日）下午在湖北武汉举行新闻发布会，中央指导组成员、国家卫生健康委有关负责人，以及四位医学专家介绍了中医药防治新冠肺炎的重要作用及有效药物。据介绍，在这次疫情防控中，从全国调来4900余名中医药人员驰援湖北，约占援鄂医护人员总数的13%，其中院士3人。在治疗过程中，展开分类救治，有效减缓了病情发展和医疗资源压力，同时推动科研攻关，筛选出一系列有明显疗效的中医药方和中医药。在发布会上，中国工程院院士、天津中医药大学校长张伯礼，中国工程院院士、中国中医科学院院长黄璐琦，北京中医医院院长刘清泉，东南大学附属中大医院副院长邱海波就中医药防治新冠肺炎情况，通过视频连线方式回答了中外记者的提问。据了解，此次新冠肺炎疫情，在早期没有特效药、没有疫苗的情况下，通过总结中医药治疗病毒性传染病规律和经验，深入发掘古代经典名方，结合临床实践，形成了中医药治疗新冠肺炎的诊疗方案和中西医结合的“中国方案”。中国的中医药界愿意与国际社会进一步加强合作交流，分享新冠肺炎疫情防治经验。据介绍，根据意大利等多个国家要求，截至目前，中国已向海外派出多支中医医疗队，参与当地新冠疫情防治。</t>
+  </si>
+  <si>
+    <t>国新办在武汉举行发布会 介绍中医药防治新冠肺炎情况</t>
+  </si>
+  <si>
+    <t>武汉泰康同济医院和港资企业武汉亚心总医院都是民营大型综合医院，新冠肺炎疫情暴发后，两家医院都改造为新冠肺炎的定点医院，义无反顾地加入了抗击疫情的战斗中。1月底，随着新冠肺炎确诊病例增多，武汉医护与治疗床位均出现较大缺口。原计划三月底开业的泰康同济（武汉）医院请缨参战，2月8日被武汉市新型肺炎防控指挥部确定为确诊病例治疗点，医院三天内就将门诊部改造成为方舱医院，共收治患者130多名。为了迎接重症患者，泰康同济（武汉）医院开始了第二次改造。仅改造一项，就花费了近1000万元。改造后的泰康同济（武汉）医院共有1060张床位，其中重症及 ICU 床位达到 780 张。目前，泰康同济（武汉）医院已治愈出院1350多人。而同样在关键时候投入抗击疫情战斗的还有港资企业武汉亚心总医院。2月9日，医院被确定为新冠肺炎定点医院，1200多名员工全员放弃休息，投身抗疫一线。除拿出400多张病床接收新冠肺炎病人外，他们还接管了武汉经开区方舱医院，收治了900多位新冠肺炎轻症患者。3月15日，随着50多位患者转移到雷神山等定点医院，亚心总医院的新冠肺炎住院患者正式清零，医院逐步恢复正常医疗服务。</t>
+  </si>
+  <si>
+    <t>民营医院积极投身一线战疫</t>
+  </si>
+  <si>
+    <t>在新冠肺炎危重症患者救治过程中，使用ECMO代替部分甚至全部肺功能，为患者赢得更多救治时间和机会，是一项非常重要的治疗手段。日前，总台央视记者跟随军队支援湖北医疗队队员走进红区，直击ECMO上机治疗全过程。今天要救治的患者，气管插管后血氧饱和度只有80％，湖北省妇幼保健院光谷院区立即组织专家会诊，决定为他进行ECMO治疗。ECMO治疗，是将患者的血液从股静脉抽出来，经过膜肺氧合后再通过另外一根管子经颈内静脉输入，回到心脏。整个过程中，对患者生命体征的监测至关重要。危重病人的药物使用，必须精确到微克/公斤体重·分钟，麻醉医生王振猛通过对输入药物的精准调整，患者血压逐渐稳定，进入镇静状态，主治医生张伟开始进行穿刺置管。张伟首先将导丝穿入患者血管中，沿着导丝用3个不同型号的扩张器建立血管通路，之后就是最关键的置入静脉管路环节。为了防止病人血液凝固形成血栓，医生要不断注射肝素，但如果肝素化过度，也会造成大出血，每一步操作必须严谨细致。此刻，即便是做过几十例ECMO置管的张伟也必须十分小心。戴着四层手套，操作却不能差毫厘，任何一个小错误都有可能对病人造成巨大的影响。股静脉置管后，张伟和其他医护人员又成功将管路置入颈内静脉。通过超声检查，上下管路位置合适，置管成功。ECMO机器开始运转后，病人的氧饱和度立时得到了好转。经过四个小时的努力，ECMO上机治疗成功了，医护人员还要继续观察一个多小时才能离开。</t>
+  </si>
+  <si>
+    <t>【新闻特写】急救5小时 ECMO搭建生命通道</t>
+  </si>
+  <si>
+    <t>今天（3月23日）的《一线抗疫群英谱》，我们一起来认识中日友好医院支援湖北医疗队的医生黄笳。疫情暴发之初，身在北京的黄笳时刻牵挂着武汉，因为在那里留下了他在武汉大学读书时7年的美好时光。1月26日，当医院组织支援湖北医疗队，黄笳毫不犹豫第一时间报名。病房里，黄笳对待每位患者都十分耐心细致。看到他们一天天康复，他感到由衷的开心。回忆起过去一个多月的工作，黄笳说刚来时的两场抢救让他印象深刻。第一场抢救因为要给患者做插管和心肺复苏，强度大动作大，他最外层的隔离衣都撑破了，厚厚的口罩也增加了呼吸的困难。顾不上自己的安危，黄笳和同事们全力将患者抢救了回来。然而，在第二场抢救中，尽管他们倾尽全力，但患者还是因为心脏问题没能扛过去。关口前移，多学科协同救治，这一个多月来，经过大家的共同努力，已经有72位重症患者治愈出院。</t>
+  </si>
+  <si>
+    <t>【一线抗疫群英谱】黄笳：第一时间 我报名回武汉抗疫</t>
+  </si>
+  <si>
+    <t>随着疫情防控形势的变化，湖北省武汉市从“按住暂停”转向“重启恢复”。昨天（3月22日），全市27个过江桥梁防疫检测点和主城区近80个防疫检查点已经全部撤除，当地正在加快修复城市功能。今早七点半，50台公交车准时抵达武汉市经开区枫桦苇岸小区。住在这里的2000多名东风本田公司员工，搭乘公交车前往工作厂区。点对点接送员工上下班，是武汉公交集团为复工企业提供的“定制公交”服务，目前已经派出912个车次，运送1万多人次。今天，还有110多条公交线路上街试跑，进行实名制扫码乘车演练。在武汉的各地铁站点，工作人员正在进行全面消杀，并开展车辆维护检修。随着城市功能的逐步恢复，无疫情社区居民的活动空间也在有序扩展。华大家园小区是武汉市首批无疫情小区。这几天，小区里已经有4家商业网点恢复营业，社区居民可以进店选购生活用品和生鲜果蔬。除邮政、顺丰、京东3家物流外，又有9家快递企业全面复工。在中通快递武汉分拨中心，一天的包裹分拣量达到110万件，恢复到正常水平的50%。目前，武汉市场供应总体平稳，居民主要生活必需品储备和库存充足、品种丰富，能够保障市民基本生活需求。当地两大批发市场、三大商超全力保障蔬菜、水产品、猪肉、鸡蛋等食品供应。</t>
+  </si>
+  <si>
+    <t>湖北武汉：重启恢复城市功能</t>
+  </si>
+  <si>
+    <t>接下来我们继续来了解一下全球的疫情形势和应对措施。世界卫生组织22日发布的数据显示，全球确诊病例已经逼近30万。多国采取更为严格的措施予以应对。世卫组织统计数据显示，截至北京时间23日1时，全球确诊新冠肺炎294110例，死亡12944例，全球已有186个国家和地区出现新冠肺炎病例，中国以外新冠肺炎确诊超过21万例。欧洲多国加大疫情防控力度在欧洲疫情最为严重的意大利，截至北京时间23日1时，确诊病例累计达到59138例，死亡病例达5476例。意大利已开始实施更为严格的在全国范围内限制人员流动的措施。同一天，法国通过了疫情紧急应对法案，将设立为期2个月的公共卫生紧急状态。在此期间，法国政府可通过发布行政法令的形式，限制人员外出和流动，征用必要的的物资与服务。西班牙决定将国家紧急状态延长15天至4月11日，并将在30天内禁止一切非必要的旅行。德国从23日开始，采取禁止两人及两人以上的聚集活动、禁止在餐厅堂食等一系列防疫举措。美国确诊病例超三万五 纽约疫情严重美国白宫方面22日称，已经有25.4万美国人接受了新冠病毒检测。根据美国约翰斯·霍普金斯大学统计的数据，截至北京时间今天（3月23日）16时，美国累计确诊病例达到35224例，累计死亡病例471例。纽约州、华盛顿州和加利福尼亚州都已经被宣布为“重大灾区”。其中纽约州的纽约市累计确诊病例占全美确诊病例的约三分之一。不过纽约州长表示，还没有从美国国会通过的首个新冠肺炎法案中获得任何资金支持。 纽约市长德布拉西奥22日警告称，纽约的疫情形势将继续恶化，要求联邦政府有所作为。在拉美，截至22日，包括智利、阿根廷、洪都拉斯、巴拿马等国在内已有近10个国家实行了宵禁。在非洲，有超过40个国家和地区报告了新冠肺炎确诊病例，多国政府升级防控措施，包括关闭海陆空口岸，号召民众居家隔离和避免外出等。</t>
+  </si>
+  <si>
+    <t>世卫：全球累计确诊病例逼近30万</t>
+  </si>
+  <si>
+    <t>在抗击疫情的一线，护士群体不可或缺，他们不仅要帮助医生争分夺秒地实施抢救，还要完成监测、查房、照顾患者等很多繁重的日常工作。今天（3月24日）的《一线抗疫群英谱》我们就来认识奋战在重症病房的90后护士孙青。这位住在ICU的患者由于感染性休克，心率、血氧饱和度快速下降，危急时刻，火神山医院重症医学一科的医护人员迅速进行深静脉置管，护士孙青帮助患者快速补液、输入血管活性药物，患者生命体征逐步恢复正常。逐渐恢复意识的老人慢慢伸出颤抖的右手，一个不太标准的军礼，传递的是对医生护士们的敬意。这是火神山医院ICU病房经常出现的场景，除了协助医生进行抢救，孙青他们还要时刻关注病人的各项指标，辗转在各个病床之间。这名患者首次使用无创呼吸机，由于面颊部压痛、口鼻咽干燥，患者感到很不舒服，情绪有些起伏，孙青赶紧进行处理。一边协助患者摘下面罩短暂调整，一边不断为患者按摩放松，在孙青的悉心照顾下，患者逐渐恢复平静。孙青所在的护士团队大多都是90后，过去的40多天里，搬运、翻身、护理、配药，高强度的工作早已是他们的常态，他们也在这场战“疫”中不断成长。</t>
+  </si>
+  <si>
+    <t>【一线抗疫群英谱】孙青：在战“疫”中淬炼成长</t>
+  </si>
+  <si>
+    <t>今天（3月24日），国务院联防联控机制新闻发布会介绍了疫情最新进展，以及新冠肺炎疫情防控与医疗诊治情况。截至3月23日24时，31个省（区、市）和新疆生产建设兵团累计报告确诊病例81171例，其中累计报告境外输入确诊病例427例；当日新增确诊病例78例，其中北京、上海、湖北、广东本土确诊各1例，境外输入确诊病例74例；现有确诊病例4735例，其中重症病例1573例；累计死亡病例3277例，当日新增7例（全部为湖北病例）；累计治愈出院病例73159例，当日新增456例；现有疑似病例132例，当日新增35例。3月23日0-24时，湖北新增确诊病例1例，为武汉病例，无新增疑似病例，无现有疑似病例。中国疾控中心介绍，我国已经建立起入境关口筛查、入境后14天隔离观察、医疗机构发现早期病人三道防线，防范境外输入病例可能带来的影响。</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：零星散发病例和境外输入病例引起的传播风险依然存在</t>
+  </si>
+  <si>
+    <t>多国人士指出，中国在继续做好国内疫情防控的同时，一直在向有需要的国家提供力所能及的支持，这是对国际抗疫斗争的坚定支持，践行了构建人类命运共同体的理念。23日，中国抗疫医疗专家组一行7人抵达柬埔寨金边国际机场，帮助柬埔寨抗击新冠肺炎疫情，这是中国向东盟国家派遣的第一支抗疫医疗队。随机运抵的还有中方援助的医疗物资。在埃塞俄比亚，22日一架搭载着来自中国抗疫物资的包机顺利抵达亚的斯亚贝巴国际机场，这批物资将用于支援非洲54个国家抗击疫情。抗疫物资的包装上写着南非前总统曼德拉的名句，附上的中文翻译则使用了中国谚语“人心齐，泰山移”，象征着中国人民与非洲人民的团结与相互支持。24日，中国医疗专家与菲律宾的医生就新冠肺炎疫情防控举行视频会议，菲律宾与会人员表示希望向中方学习防控经验。埃及外交事务委员会主任伊扎特·萨阿德表示，新冠肺炎疫情全球流行再次证明了人类命运休戚与共。中国采取果断措施较快控制了疫情。在疫情局势好转之后，中国又立即派出医疗专家团队奔赴疫情严重国家并带去防疫物资，展现了一个负责任大国的国际担当。</t>
+  </si>
+  <si>
+    <t>国际社会：中国抗疫经验值得全世界学习</t>
+  </si>
+  <si>
+    <t>近日，中央广播电视总台CGTN一段新媒体端主持人评论视频《悦辩悦明》被海外网友翻译成不同语种在多个社交平台广为流传，引发数百万观众的共鸣。邹悦在节目中说，目前中国疫情防控已经取得显著成效，证明了这些措施是及时有效的。这段中国严格抗疫举措的视频迅速在各类社交平台上走红，并被《印度快报》《经济时报》《雅加达邮报》等多家媒体转载。一位印度电影演员评论说：“这是我所听过的最理智和真实的评论！这才是一个国家可以战胜疫情的办法。让我们学习中国的经验，击败可恶的病魔！”还有网友评论：“如何战胜疫情？或许唯一的办法是采取中国的措施！”网友阿夫瑞迪留言：“中国在疫情控制方面的观念和做的工作都很好，为中国感到骄傲。”</t>
+  </si>
+  <si>
+    <t>总台CGTN视频迅速走红网络</t>
+  </si>
+  <si>
+    <t>世界卫生组织23日宣布，全球新冠肺炎确诊病例已经超过30万例，病例的增长速度在不断加快。多个国际组织呼吁国际社会合作抗击疫情，呼吁反对污名化等不负责任的做法。世卫组织公布的数据显示，截至北京时间24日凌晨1点，全球189个国家和地区累计报告确诊病例334981例，死亡14652例。世卫组织警告说，病例增长速度不断加快，国际社会必须加强团结应对。当前欧洲疫情防控形势依然严峻。意大利累计确诊病例已超过6万例，继续采取严格的防控措施。在法国，从24日开始户外活动只能在距离家庭住址半径1公里范围内进行。英国政府要求民众停止一切不必要的外出。在亚洲，印度首都新德里23日开始限制人员出入，只保留基础生活保障行业继续运行。韩国政府发布为期一个月的全球旅游安全特别预警。根据美国约翰斯·霍普金斯大学的数据，截至北京时间24日下午3点，美国累计确诊病例达46450例，死亡593例。纽约州、加州和伊利诺伊州等近10个州已要求非关键行业员工居家，避免外出。联合国秘书长呼吁全球停火 共同“战疫”面对疫情蔓延，联合国秘书长古特雷斯23日呼吁全球范围内停火，并出台相应计划，以应对疫情对经济和社会造成的冲击。联合国当代形式种族主义、种族歧视、仇外心理和相关不容忍现象特别报告员滕达伊·阿丘梅指出，有关国家官员使用别有用心的名称来替代新冠病毒，这种把特定疾病与某个具体国家或民族相联系的仇外表达是不负责任和令人不安的。欧盟外长23日就应对疫情举行视频会议。欧盟外交与安全政策高级代表博雷利在会后表示，新冠肺炎疫情是全人类面临的威胁，我们必须加强合作，加强多边主义，携手抗击疫情，避免对新冠病毒污名化。二十国集团财长和央行行长当天也召开视频会议，同意制定联合行动计划，共同应对疫情带来的全球挑战。</t>
+  </si>
+  <si>
+    <t>世卫：全球新冠肺炎确诊病例超30万例</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：3月24日我国内地无新增本土确诊和疑似病例</t>
+  </si>
+  <si>
+    <t>今天（3月25日），国务院联防联控机制新闻发布会介绍了疫情最新进展，以及信息技术助力疫情防控、复工复产和中小企业发展有关情况。截至3月24日24时，31个省（区、市）和新疆生产建设兵团累计报告确诊病例81218例，其中累计报告境外输入确诊病例474例；当日新增确诊病例47例，均为境外输入病例；现有确诊病例4287例，其中重症病例1399例；累计死亡病例3281例，当日新增4例；累计治愈出院病例73650例，当日新增491例；现有疑似病例134例，当日新增33例（均为境外输入病例）。3月24日0-24时，湖北无新增确诊病例，无新增疑似病例，无现有疑似病例。工业和信息化部介绍，新一代信息技术在疫情防控和复工复产中发挥了重要作用。借助大数据、云计算、人工智能、5G等新技术，精准高效地开展疫情监测、社区管理等方面的工作。工业和信息化部还出台了帮助中小企业复工复产共渡难关的20条措施，截至3月24日，中小企业复工率已达71.7%。</t>
+  </si>
+  <si>
+    <t>当前湖北、武汉的新冠肺炎重症救治已经进入最后攻坚阶段，广大医护人员慎终如始，尽最大可能挽救更多患者生命，努力提高治愈率、降低病亡率。坚持把患者救治放在第一位，经过医护人员的不懈努力，截至目前，湖北重症、危重症患者已经从最高峰的突破万例，下降到现在的1360余例。24日，武汉协和医院西院又有55位重症病人治愈出院，其中就有75岁的沈女士。随着疫情防控形势持续向好，现在已经有21000多名来自各地援鄂医务人员陆续撤离，但承担重症救治任务的医疗团队仍然留守，他们坚守在武汉各个重症定点收治的医院，抢救生命，须臾不敢放松。安徽第三批援鄂医疗队的300名队员在完成方舱医院的救治任务后，集体提交请战书，申请转战重症病区。重症救治是场硬战，尽最大努力救治每一位患者，用高水平医疗力量打一场高水平的救治攻坚战。浙江省第五批医疗队的172名医务人员在结束武汉大学中南医院的救治任务后，立即转战金银潭医院接收重症病区，这里的23位病人住院时间长，病情较重，救治难度极大。随着病人数量的减少，各定点医院病区正在合并，重症患者正在转移集中，统筹更多高水平医疗资源，加强护理力量和精细化管理，努力降低病亡率是当前的重点。在华中科技大学同济医院中法新城院区和光谷院区，目前收治的重症、危重症患者占到武汉重症患者的20%以上，按照规划，这些重症患者都将集中到中法新城院区，由来自北京的6家顶级医院和武汉同济医院携手攻坚。</t>
+  </si>
+  <si>
+    <t>武汉：积极开展重症救治</t>
+  </si>
+  <si>
+    <t>今天（3月25日）零时起，湖北省除武汉市以外地区正式解除离鄂通道管控，生产生活从“暂停”向“重启”转变。今天起，湖北除武汉外16个市州陆续开始撤卡，27日将全部拆除，长途客运班线陆续恢复运行，出省则实行“点对点”包车。今天，湖北省境内除武汉市17个铁路客运站以外的火车站也陆续开行。武汉市城区降为中风险 逐步恢复交通武汉市的交通也在逐步恢复，今天，恢复公交线路117条。3月28日起，将恢复轨道交通1号线、2号线、3号线、4号线、6号线、7号线运行。武汉火车站也在为运行做准备，这两天，80名消防员分成8个组，对武汉火车站进行科学消杀。湖北省消防救援总队目前已防疫洗消2400余万平方米。来自湖北省新冠肺炎疫情防控指挥部消息，截至3月24日24点，湖北全省低风险市县75个，中风险市县1个，无高风险市县。武汉市城区降为中风险。</t>
+  </si>
+  <si>
+    <t>湖北：武汉以外地区解除离鄂通道管控</t>
+  </si>
+  <si>
+    <t>世界卫生组织24日宣布，全球新冠肺炎确诊病例已超过37万例。世卫组织发言人玛格丽特·哈里斯表示，美国新冠肺炎确诊病例迅速增加，有可能成为新的疫情“震中”。世卫组织公布的数据显示，截至北京时间25日凌晨1点，全球195个国家和地区累计报告确诊病例375498例，死亡16362例。世卫发言人：美国或成为疫情新“震中”美国约翰斯·霍普金斯大学的数据显示，截至北京时间25日15点，美国确诊病例升至55225例，单日新增8000多例；死亡801例，新增208例。其中半数左右的病例集中在纽约州。纽约州州长科莫24日警告说，此前预估纽约州的疫情高峰将会在45天后到来，但按照现在的增长趋势，高峰期可能在14天后到来。他再度呼吁美国联邦政府提供呼吸机等医疗物资。美国经济总量最大的州——加利福尼亚州也出现医疗物资告急。美国海军24日证实，“罗斯福”号航母上有三名水兵新冠病毒检测呈阳性，航母曾在15天前停靠越南岘港，舰上载有约5000人。多国继续加强疫情防控措施面对疫情，多国继续加强防控措施。意大利24号决定将国家紧急状态持续到7月底，并将违反防控令的行政罚款最高提高到3千欧元。西班牙将位于首都马德里的会展中心改建为方舱医院，预计将提供5500张床位。法国启用野战医院，配备重症监护床位。英国宣布将在2012年奥运会场馆之一——伦敦国际会展中心新建一座急诊医院，提供4000张床位。</t>
+  </si>
+  <si>
+    <t>世卫：全球确诊病例超37万例</t>
+  </si>
+  <si>
+    <t>面对疫情在多国多点暴发，中国积极分享和交流抗疫经验，向有需要的国家派遣医疗专家团队、提供力所能及的帮助，对此多国各界人士纷纷对中国的“雪中送炭”表示感谢。24日，中国援助塞尔维亚抗疫医疗专家组与塞尔维亚方面举行交流会，讨论抗击新冠肺炎和治疗患者的措施。当天，塞尔维亚在贝尔格莱德会展中心搭建方舱医院，这里将铺设3000张床位，用来集中收治新冠肺炎患者。中国政府援助泰国的抗疫物资24日送到泰方手中，抗疫物资上写有“中泰一家亲”字样。泰国副总理兼卫生部长阿努廷感谢中国抗疫物资雪中送炭，表示中泰友谊患难见真情。24日，白俄罗斯总统卢卡申科感谢中国分享抗疫经验，他表示，当前新冠肺炎疫情在世界各国迅速蔓延，白俄罗斯正在学习中国的经验，采取专业精准的措施防控疫情传播。</t>
+  </si>
+  <si>
+    <t>国际社会：感谢中国“雪中送炭” 分享抗疫经验</t>
+  </si>
+  <si>
+    <t>近日，一些外国政党政要致电致函中共中央对外联络部，感谢中国共产党专门致信分享疫情防控经验做法，并及时向其他国家提供援助，认为中国的抗疫经验为世界各国提供了重要借鉴，个别国家污名化中国的图谋不得人心。老挝人民革命党中央对外联络部部长顺通表示，在习近平总书记亲自指挥、亲自部署下，中国共产党发挥强大的政治领导作用，制定科学有效的防控策略，推动形成全国一盘棋的联防联控格局，创新运用中西医结合疗法，在短时间内取得抗疫斗争的重大胜利。中国共产党致信介绍中国疫情防控经验做法，并向老方提供急需的防疫物资，堪比雪中送炭。印度尼西亚民主斗争党秘书长哈斯托和外联主席巴萨拉联名表示，在习近平总书记和中国共产党的坚强领导下，中国以抗击疫情的实践为世界树立了绝佳典范，我们从中受益良多。中国政府和人民齐心协力、携手抗疫的伟大精神点亮了全球。东帝汶民主党主席萨比诺表示，当前经济全球化、文化多样化深入发展，不同文明之间更需要相互借鉴、相互依存。我们应携手并进，共同抗击病毒。孟加拉国人民联盟主席团成员、议会法律事务委员会主席阿卜杜尔·卡斯鲁表示，病毒没有国家、社会、政治制度和文化价值观之分，加强各国经验分享和国际抗疫合作至关重要。全世界都从中国的抗疫经验中受益，中国为世界提供的真诚帮助值得高度赞赏。伊朗伊斯兰联合党总书记巴达姆齐安表示，在习近平总书记的英明领导下，中国共产党、中国政府和人民为抗击疫情投入巨大资源、付出艰辛努力，为全球其他国家应对疫情提供了宝贵经验和成功榜样。伊方衷心感谢中国共产党分享抗疫经验并提供重要援助。叙利亚阿拉伯复兴社会党副总书记希拉勒表示，疫情蔓延让全世界都感到担忧，但个别国家仍在追求自私的政治利益。我们高度赞赏中方秉持“以人民为中心”的理念，为抗击疫情作出了巨大努力。中国的胜利就是全人类的胜利。哥伦比亚自由党总书记桑切斯表示，感谢中国共产党分享中国抗疫的经验做法，这为正在竭力防控疫情的哥伦比亚提供了重要借鉴。在全球抗疫的过程中，我们认识到构建人类命运共同体的必要性和紧迫性，愿同中国共产党携手维护地区和全球公共卫生安全。斯洛文尼亚前总统达尼洛·图尔克表示，我们高度赞赏中国向欧洲国家提供的抗疫援助，这为国际社会树立了团结互助的榜样。一些国家一味指责别国，只会毒化国际政治环境。世界各国都应为国际抗疫合作作出贡献。此外，巴基斯坦穆斯林联盟（谢里夫派）领导人穆沙希德、黎巴嫩人民会议组织主席夏提拉、委内瑞拉制宪大会副秘书长佩雷斯、马耳他工党领袖阿贝拉、西班牙共产党总书记圣地亚哥等政党领导人也来电来函，赞赏中国抗疫取得的积极进展为世界注入了信心和希望，表示愿共同推动全球开展抗疫合作。</t>
+  </si>
+  <si>
+    <t>外国政党政要称赞中方抗疫经验为世界提供了重要借鉴</t>
+  </si>
+  <si>
+    <t>3月26日，国家主席习近平复信世界卫生组织总干事谭德塞，赞赏谭德塞为推动全球抗击新冠肺炎疫情所作努力，表示中国将继续为国际社会抗击疫情提供支持。3月17日，谭德塞致函国家主席习近平，表示在习近平主席的卓越领导下，中国为抗击新冠肺炎疫情付出了令人难以置信的努力。得益于中国政府的坚定决心和中国人民的勤勉奉献，新冠肺炎疫情在中国得到全面快速应对。这向国际社会充分表明，只要明确重点，集中力量，就能改变疫情的发展轨迹。我还要对中国政府向世界卫生组织以及国际抗疫工作提供资金支持深表感谢。这一善举体现了全球团结互助精神，对尽快遏制疫情至关重要。习近平在复信中对谭德塞及世界卫生组织同中方密切合作抗击疫情表示高度赞赏，指出当前中国疫情防控形势持续向好，生产生活秩序加快恢复态势不断巩固和拓展，统筹推进防控和经济社会发展工作取得积极成效。我们将准确把握国内外疫情防控和经济形势的阶段性变化，因时因势调整工作着力点和应对举措，确保打赢疫情防控的人民战争。习近平表示，在你的带领下，世界卫生组织积极推动抗击疫情国际合作，得到国际社会广泛认可，中国将继续坚定支持你和世界卫生组织在国际抗疫合作中发挥积极领导作用。中国一直以实际行动积极支持国际社会抗疫努力，已经向包括世界卫生组织在内的国际组织以及80多个国家提供援助。中方将在力所能及范围内，继续为国际社会抗击疫情提供支持。习近平强调，新冠肺炎疫情再次表明，人类是一个休戚与共的命运共同体。国际社会应该守望相助、同舟共济。我们愿同世界卫生组织及各国一道，为维护全球公共卫生安全作出贡献。</t>
+  </si>
+  <si>
+    <t>习近平复信世界卫生组织总干事</t>
+  </si>
+  <si>
+    <t>26日，中共中央政治局常委、国务院总理、中央应对新冠肺炎疫情工作领导小组组长李克强主持召开领导小组会议。中共中央政治局常委、中央应对新冠肺炎疫情工作领导小组副组长王沪宁出席。会议指出，要认真贯彻习近平总书记重要讲话和中央政治局常委会会议精神，按照中央应对疫情工作领导小组部署，全面科学研判国内外疫情变化，充分认识疫情形势的复杂严峻性，决不可掉以轻心，坚持外防输入、内防反弹防控策略，完善应急和常态化防控结合的措施与机制，做好疫情境内防控和跨境输入输出防范，在科学精准防控同时积极有序推动复工复产。会议指出，要巩固武汉和湖北防控成果。在武汉保留高水平重症救治力量，降低病亡率。公共卫生团队下沉社区，查清每一例新增确诊、疑似病例和无症状感染者来源并做好医学管理。各地要发挥医疗机构发热门诊预检分诊、不明原因肺炎监测报告“两张网”作用，一旦发现病例立即精准管控，切实做到“四早”，坚持实事求是，公开透明发布信息，决不允许瞒报漏报。会议指出，境外疫情大流行呈加速趋势。要加强航空口岸疫情输入输出防范。关爱帮扶我在境外公民，为陷入困境人员提供特殊帮助。压实属地责任，加强陆路水路防输入输出工作。除边民和外交、重要经贸科技人员外，对陆运口岸入境人员按规定集中隔离。保持跨境货运畅通，落实好对货车司乘人员的防控措施。加强入境国际船舶登临检疫。领导小组成员丁薛祥、黄坤明、蔡奇、王毅、肖捷、赵克志参加。</t>
+  </si>
+  <si>
+    <t>李克强主持召开中央应对新冠肺炎疫情工作领导小组会议 要求严格落实防止境内疫情反弹各项措施 进一步做好境外疫情经陆路水路输入风险防控工作</t>
+  </si>
+  <si>
+    <t>中央指导组：咬紧牙关攻坚克难 加强重症患者救治</t>
+  </si>
+  <si>
+    <t>为深入贯彻习近平总书记重要指示精神，落实中央应对疫情工作领导小组部署，26日上午，中共中央政治局委员、国务院副总理、中央指导组组长孙春兰召开会议，听取武汉同济医院光谷院区、雷神山医院、武汉协和医院、武汉人民医院和国家中医医疗队重症、呼吸、麻醉等科室一线医务人员意见建议，就进一步做好重症患者救治工作提出要求。孙春兰指出，现在住院患者的绝对数少了，但重症救治难度更大了。一定要咬紧牙关，发扬攻坚克难的精神，慎终如始，全力以赴做好救治工作。她强调，要在救治的各个环节坚持关口前移和分类管理，尽可能将重症患者集中收治到高水平定点医院，在转院过程中，注意做好病情评估和监护，确保患者安全。要始终坚持同质化规范化治疗，加快推广前期证明有效的诊疗方案和药物，尤其是总结完善中医药、人工膜肺、插管小分队等在重症救治方面的经验，用更好的手段、更精细的护理，把病亡率降到最低。要坚持科技创新和临床治疗结合，在科学精准救治上下功夫，根据具体情况实施“一人一策”，力求治疗效果达到最佳，最终打赢武汉保卫战、湖北保卫战。</t>
+  </si>
+  <si>
+    <t>今天（3月26日）的《一线抗疫群英谱》，我们来认识一位七旬医者——中国工程院院士、天津中医药大学校长张伯礼。在康复驿站，张伯礼正在给治愈后仍处于隔离期的康复者们问诊。随着疫情持续向好，治愈患者不断增加，完善新冠肺炎康复期的中医治疗方案成为他现在的主要工作。张伯礼说，近二个月的一线抗疫，让他最欣慰的是，中医早介入、全程参与，在新冠肺炎治疗中起到了重要作用。2月初，刚到武汉不久的张伯礼面对没有西医特效药的情况，提出对集中隔离的疑似、发热等患者采用“中药漫灌”的治疗方式，也就是给他们普遍服用以治湿毒疫为主要功效的中药袋装汤剂。这一建议被中央指导组采纳。采用中医药早期干预的同时，张伯礼又与同是中央指导组专家的北京中医医院院长刘清泉共同请缨，率领来自天津、江苏、湖南、河南、陕西等地的中医医疗团队，进驻武汉市江夏方舱医院。他们采取以中医药为主的综合治疗，共收治新冠肺炎轻症和普通型患者564人。也就是在这段时间，张伯礼不分昼夜的高负荷工作导致胆囊炎发作，于2月19日接受微创胆囊摘除手术。手术后第三天，张伯礼就重新投入工作。在张伯礼和同事的共同努力下，中医药的作用体现在了预防、治疗和康复的全过程，总有效率达到90%以上。特别在用药方面，目前已筛选出金花清感颗粒、连花清瘟胶囊、血必净注射液和清肺排毒汤、化湿败毒方、宣肺败毒方等有明显疗效的“三药三方”，并编入第七版新冠肺炎诊疗方案中。</t>
+  </si>
+  <si>
+    <t>【一线抗疫群英谱】张伯礼：中西医互补救治患者</t>
+  </si>
+  <si>
+    <t>国务院新闻办今天（3月26日）举行新闻发布会，介绍中国关于抗击疫情国际合作的有关情况。外交部、国家国际发展合作署等部门介绍，中国不仅有效遏制了国内的疫情扩散，而且为全世界抗击疫情争取了时间，积累了经验，提供了帮助。中国政府已组织实施对89个国家和4个国际组织的抗疫援助。科技部介绍，疫情发生后，围绕临床救治和药物、疫苗研发、病毒溯源和传播、检测试剂与设备、动物模型构建五大方向，加快推进科技攻关，取得了一批切实管用的科技成果。国家卫生健康委还和世卫组织共同举办“分享防治新冠肺炎中国经验国际通报会”。此外，中方通过远程视频的方式与100多个国家和地区举办了近30场技术交流会议，并向意大利、塞尔维亚、柬埔寨等国派遣抗疫医疗专家组。国家卫生健康委表示，下一步，将继续同世卫组织开展有效合作，以多种形式同国际社会分享抗疫经验，向有关国家提供技术支持，发挥负责任大国作用。</t>
+  </si>
+  <si>
+    <t>国新办发布会：中方积极参与全球抗疫 开展国际合作</t>
+  </si>
+  <si>
+    <t>今天（3月26日），国务院联防联控机制新闻发布会介绍了疫情最新进展，以及水利保障疫情防控和复工复产的情况。截至3月25日24时，31个省（区、市）和新疆生产建设兵团累计报告确诊病例81285例，其中累计报告境外输入确诊病例541例；当日新增确诊病例67例，均为境外输入病例（上海18例，内蒙古12例，广东11例，北京6例，福建6例，陕西3例，天津2例，浙江2例，江苏2例，云南2例，山西1例，吉林1例，河南1例）；现有确诊病例3947例，其中重症病例1235例；累计死亡病例3287例，当日新增6例（全部为湖北病例）；累计治愈出院病例74051例，当日新增401例；现有疑似病例159例，当日新增58例，均为境外输入病例。3月25日0—24时，湖北无新增确诊病例，无新增疑似病例，无现有疑似病例。水利部介绍，目前国家确定的172项重大水利工程已开工142项，在建规模超过1万亿。湖北全省334座大中型水库有效蓄水量43.3亿立方米，为湖北疫情防控和复工复产提供了支撑。</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：23省份报告境外输入确诊病例 应做持久防控准备</t>
+  </si>
+  <si>
+    <t>多国人士表示，在抗击本国疫情的同时，中国积极分享信息，开展国际合作，展现负责任大国担当，践行了构建人类命运共同体的理念。25日，我国派出的第三批抗疫医疗专家组携带捐赠的救治物资和防护用品抵达意大利米兰。本批医疗专家组将主要在意大利托斯卡纳大区协助当地应对疫情。25日，中国政府将援助伊朗医疗物资转交给伊朗方面。伊朗官员表示，中国在有效遏制疫情的同时向世界伸出援手，用实际行动展现出大国责任与担当。25日，由中国专家团队协助建设的“抗击新冠肺炎疫情核酸检测实验室”在伊拉克首都巴格达揭牌，并正式投入使用。这将显著提升伊拉克对于新冠病毒的检测能力。在二十国集团领导人应对新冠肺炎特别峰会召开之际，国际人士期待习主席在峰会上分享中国抗击疫情经验。世卫组织东地中海区域办事处负责人艾哈迈德·曼达里表示，习近平主席出席峰会，分享中国疫情防控经验，传递战胜疫情信心，对于建立“人人有责、人人共享”的区域公共卫生事业体系很有帮助。美国库恩基金会主席罗伯特·劳伦斯·库恩认为，面对疫情的迅速蔓延，世界深刻认识到中国提出的人类命运共同体理念的现实意义。这一理念富有远见，在各国抗击疫情的当下，为世界提供了新思维方式，传达了巨大的希望。</t>
+  </si>
+  <si>
+    <t>多国人士：中国展现大国担当 彰显人类命运共同体理念</t>
+  </si>
+  <si>
+    <t>世界卫生组织25日宣布，全球新冠肺炎确诊病例已经超过40万例。世卫组织总干事谭德塞呼吁各国应利用好“第二次机会窗口”，抗击疫情。世卫组织的数据显示，截至北京时间今天（3月26日）凌晨1点，全球新冠肺炎确诊病例达到416686例；死亡病例为18589例。谭德塞说，许多国家采取了减少社交活动、增加人与人之间物理距离等措施，但这并不能从根本上消灭流行病。他呼吁相关国家利用这段时间，采取扩大公共卫生人力资源、建立社区一级的疑似病例排查体系、加强检测能力等“关键行动”，抑制和阻止疫情传播。世卫组织卫生紧急项目技术主管玛丽亚·范·科霍夫说，中国在不同风险地区采取了不同强度的措施，有效阻止了疫情传播，值得世界学习。多国继续加强疫情防控措施伊朗卫生部26日宣布，截至当地时间当天中午，伊朗新增新冠肺炎确诊病例2389例，累计确诊29406例，死亡2234例。25日，在经过伊朗军方48小时紧急改造后，由德黑兰会展中心改造的方舱医院正式投入使用，目前这里有2000张隔离床位，将来可以视需要增加到3000张。 当天，伊朗总统鲁哈尼宣布将出台更为严格的交通管制措施。日本东京都新冠肺炎确诊病例近两天快速增长。26日新增45人，成为单日确诊病例最多的一天。25日晚，东京都知事小池百合子宣布现在面临疫情暴发的严重局面，要求民众避免不必要、非紧急的外出，并称可能将采取进一步的限制措施。据俄罗斯新冠病毒防疫官网消息，26日，俄罗斯新冠肺炎确诊单日新增182例。俄罗斯将从3月28日起全国放假9天，以阻止疫情扩散。从北京时间27日5时起，暂停往返俄罗斯各机场与外国各机场间的定期和包机航班。俄罗斯政府已批准拨款建设16座方舱医院。美国约翰斯·霍普金斯大学发布的统计数据显示，美国确诊病例已逼近7万例。截至25日，美国已有至少21个州宣布了关闭商店、限制人员外出的防控措施。</t>
+  </si>
+  <si>
+    <t>世卫：全球确诊病例超40万例</t>
+  </si>
+  <si>
+    <t>本台今天（3月27日）播发国际锐评《中国倡议为全球共同抗疫注入强大信心与动力》。</t>
+  </si>
+  <si>
+    <t>国际锐评：中国倡议为全球共同抗疫注入强大信心与动力</t>
+  </si>
+  <si>
+    <t>今天（3月27日），国务院联防联控机制新闻发布会介绍了疫情最新进展，以及防范气象灾害保障复工复产和春耕备耕的情况。截至3月26日24时，31个省（区、市）和新疆生产建设兵团累计报告确诊病例81340例，其中累计报告境外输入确诊病例595例；当日新增确诊病例55例，其中境外输入病例54例，本土病例1例（为浙江病例）；现有确诊病例3460例，其中重症病例1034例；累计死亡病例3292例，当日新增5例（全部为湖北病例）；累计治愈出院病例74588例，当日新增537例；现有疑似病例189例，当日新增49例。3月26日0-24时，湖北无新增确诊病例，无新增疑似病例，无现有疑似病例。农业农村部和中国气象局介绍，今年强对流天气发生时间早、持续时间长，两部门正组织各地制定完善防范预案，确保夏粮丰收。</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：境外疫情大流行呈加速趋势 我国防输入压力持续加大</t>
+  </si>
+  <si>
+    <t>为深入贯彻习近平总书记重要指示精神，落实中央应对疫情工作领导小组部署，3月27日，中共中央政治局委员、国务院副总理、中央指导组组长孙春兰与抗疫一线媒体记者座谈，代表党中央、国务院，向战斗在抗疫一线的新闻工作者表示诚挚的慰问和衷心的感谢，希望再接再厉深入报道党中央重大决策部署，讲好中国抗疫故事，强信心、暖人心、聚民心，汇聚共克时艰的磅礴力量。座谈中，8位媒体记者代表讲述了用纸笔、话筒和镜头记录疫情防控的日日夜夜和难忘瞬间。新冠肺炎疫情发生以来，445名新闻工作者主动请缨，奔赴武汉，与当地媒体并肩作战，第一时间多角度、全方位报道疫情救治防控情况，精心制作新闻作品50余万件，持续收集报送民生诉求2万余条。孙春兰说，媒体记者不畏艰险、深入“红区”，在医院、方舱、重症病房等地舍生忘死记录这场惊心动魄的战役，用情用心讲述抗疫感人事迹，客观真实反映广大群众的困难和问题，体现了实事求是、一心为民的职业操守和无私无畏、忘我拼搏的崇高精神，你们是抗疫战士，是抗疫英雄，为湖北武汉疫情防控凝聚起强有力的精神力量，极大地鼓舞了一线士气。孙春兰强调，当前以武汉为主战场的全国本土疫情传播基本阻断，但外防输入、内防反弹的任务仍然繁重。希望大家慎终如始，不麻痹、不厌战、不松劲，既当记录员，又当战斗员，发挥主力军、主渠道、主阵地作用，深入报道党中央重大决策部署，统筹做好医疗救治、社区防控、复工复产、返岗返乡等宣传，总结推广中国抗疫经验和方法，提振信心、凝聚共识，为经济社会发展注入更多正能量。</t>
+  </si>
+  <si>
+    <t>中央指导组与抗疫一线媒体记者座谈：讲好中国抗疫故事 强信心 暖人心 聚民心</t>
+  </si>
+  <si>
+    <t>上海精准有力严防境外疫情输入，持续有效巩固防控成果。上海浦东国际机场是众多境外旅客入沪的第一站，目前已逐步建立健全航班专场停靠、分流专用通道、筛查专业检测、转运专车接送等闭环机制。上海目前每天国际进港航班约55架次，入境人员约1万多人。从3月23日起，上海对所有入境来沪人员实施100%新冠病毒核酸检测。上海浦东国际机场所在的浦东新区，现有34个集中隔离观察点。在隔离点，工作人员对所有的隔离人员进行医学观察。技防加人防，用最严的手段守住疫情防控，这就是上海对全体中外居民做出的最暖心的承诺。</t>
+  </si>
+  <si>
+    <t>上海：全程管理 严防境外输入</t>
+  </si>
+  <si>
+    <t>今天（3月27日）的《一线抗疫群英谱》，我们来认识湖北省妇幼保健院光谷院区感染14科护士长李晓莉。从事临床护理专业26年，她曾远赴刚果（金）参加国际维和，也曾冲锋在玉树抗震救灾、舟曲泥石流抢险中救治伤员。新冠肺炎疫情暴发后，她又一次冲到了第一线。一大早，护士长李晓莉像往常一样，赶在早班护理组接班前进入“红区”，每天掌握患者的第一手病情早已成为她的习惯。看患者、问病情、查体征，进入病区的李晓莉就像上了发条一样进入了快节奏，一刻也停不下来。所有发现的问题她都现场记录下来，有的粘到病房门上，有的贴在护士站最显眼的地方。在这里，患者们有个大事小情，都愿意找风风火火的李晓莉。风风火火却也细致入微。85岁的郑大爷前几天有些不舒服，生命体征却并无异常。凭着多年的临床经验，查房时，李晓莉暗暗地留了心。当天中午，郑大爷突然并发症急性发作，血氧急速下降，危及生命。李晓莉和医护人员迅速采取静脉补钾、高流量吸氧等措施急救，从死亡边缘把郑大爷拉了回来。李晓莉所在的科室老年患者接近七成，对于这些老年患者，李晓莉为他们一人设计一套护理方案，细心照顾。</t>
+  </si>
+  <si>
+    <t>【一线抗疫群英谱】李晓莉：抢救患者 速度与质量并重</t>
+  </si>
+  <si>
+    <t>武汉由高风险区降为中风险区后，城市功能正逐步有序恢复。武汉地铁站大智路车站正在进行检测。明天（3月28日），武汉轨道交通1号线、2号线等6条线路将恢复运行，涉及到的184座车站已全部完成消杀和测试。25日开始，武汉市的117条公交线路恢复运行。记者在武汉火车站公交枢纽站看到，志愿者正在引导乘客排队有序乘车，同时，还有专门的安全员为乘客测量体温、指导扫码。武汉金融服务也在恢复，工、农、中、建等银行的40多家网点已经开门营业。武昌区尚隆地球村小区是最新一批被认定的无疫情小区之一。记者在该小区看到，经测温、登记、验证健康码后居民有序进出小区。截至目前，武汉全市无疫情小区累计数量6893个，占比97.1%；无疫情社区累计数量1136个，占比80.8%；无疫情村（大队）累计数量1932个，占比99.4%。</t>
+  </si>
+  <si>
+    <t>武汉居民生活秩序逐步恢复</t>
+  </si>
+  <si>
+    <t>由中央广播电视总台CGTN推出的“全球疫情会诊室”直播，受到越来越多海外医疗机构的关注，他们纷纷提出要加入“会诊室”的申请，分享中国抗疫一线医护人员疫情防控经验。昨晚（3月26日），在“全球疫情会诊室”举行的第二场中医专场上，来自加拿大、英国、印度和巴基斯坦的中医师详细询问了中医药在新冠肺炎治疗过程中的作用。截至目前，总台CGTN“全球疫情会诊室”相关报道全球阅读量达到5451万，视频观看量接近2000万。据了解，“会诊室”还将陆续推出专题讨论和中医专场。</t>
+  </si>
+  <si>
+    <t>总台CGTN“全球疫情会诊室”邀约不断 中医助力全球抗疫</t>
+  </si>
+  <si>
+    <t>26日，意大利新冠肺炎确诊病例突破8万例，意大利民防部门当天向贝尔加莫等城市派遣了首支由新征募的医生和护士组成的医疗队。同一天，意大利政府获准对确诊病例及可能的接触者进行“行程追踪”，以控制疫情蔓延。法国26日开始动用高铁列车来转运新冠肺炎病患，并将动员7000名军人参与抗击疫情行动。英国卫生部门正动员医学系在校生等更多后备力量加入抗疫一线，同时召集超过56万名志愿者。在伊朗，当地从今天（3月27日）开始在全国实施“社交疏远”计划，直到4月3日新年假期结束。土耳其卫生部26日称，在24小时内，土耳其对7286人进行了新冠病毒检测，其中1196人检测结果呈阳性。土耳其累计确诊病例快速上升至3629例。当天土耳其宣布一系列应对疫情新措施，包括将呼吸机列入出口管制物项清单等。</t>
+  </si>
+  <si>
+    <t>多国继续加强疫情防控措施</t>
+  </si>
+  <si>
+    <t>世界卫生组织总干事谭德塞26日表示，全球新冠肺炎确诊病例正呈现指数级增长，他再次呼吁各国采取积极措施控制疫情。根据世界卫生组织的统计数据，截至北京时间27日凌晨1时，全球新冠肺炎确诊病例达到465915例，死亡21031例。 目前全球已有199个国家和地区出现确诊病例。中国以外新冠肺炎确诊病例超过38万例。世卫组织总干事谭德塞26日表示，从全球的情况来看，新冠肺炎“大流行”的病例正呈现指数级增长。新冠肺炎全球累计确诊病例数量达到10万例经过了67天，从10万增加到20万例只有11天，再到30万例仅用了四天，到40万例只用了不到两天。谭德赛再次呼吁所有国家都采取积极措施挽救生命，他强调这是一场全球危机，需要全球共同应对。美国为全球确诊病例最多的国家根据美国约翰斯?霍普金斯大学发布的数据，截至北京时间27日15时，美国累计新冠肺炎确诊病例升至85991例，死亡病例为1296例。目前美国是全球新冠肺炎确诊病例最多的国家，其中纽约州疫情最重，确诊病例超过37000例。纽约州州长科莫已下令全州医院将病床数增加至少50%，当地相关部门正在试图建立多所应急医院。据美国媒体26日报道，美国海军“西奥多?罗斯福”号航母上已经有25人确诊染病。美国海军方面称，航母上有约5000人，所有人都将接受新冠病毒检测，航母也将返回关岛基地。</t>
+  </si>
+  <si>
+    <t>世卫：新冠肺炎大流行呈指数级增长</t>
+  </si>
+  <si>
+    <t>目前，湖北武汉的重症和危重症患者已经不到900人，在武汉市肺科医院的ICU病房，重症监护室主任胡明带领医护人员和各地前来支援的医疗团队一起，齐心协力，全力救治每一位危重症患者。晚上12点多，武汉市肺科医院ICU主任胡明正在夜间查房。他仔细检查每一位病人的各项参数变化。这位近50岁的患者已经用了快30天的ECMO，每个细节都将决定救治的走向。为了更好地救治危重症患者，武汉市肺科医院原本两个独立的ICU病区最近刚刚打通，并根据病人情况进行了危重区、过渡区和康复区的功能划分。胡明负责的病床从10张变成了20张。在危重症患者康复区，这位患者是胡明他们收治新冠肺炎患者以来救治时间最长的一位，已经满70天了。如今，在团队的不懈努力下，患者的病情正在一天天好转。在ICU病房，胡明已经坚守了两个多月了，晚上就住在病房隔壁的值班室里。每次抢救，作为科室主任的他总是冲在最前面。2月下旬，胡明光荣地成为武汉市肺科医院首批火线入党的五名党员之一。随着危重症患者向高水平定点医院集中，武汉肺科医院ICU转入了更多的危重患者，16名患者中有5个人上了ECMO。从最初30名本院医护人员的坚守，到现在内蒙古、安徽、浙江、江苏、北京等多地近两百名医护人员的进驻，大家齐心协力对每一位危重患者进行救治，与死神进行较量。</t>
+  </si>
+  <si>
+    <t>【一线抗疫群英谱】胡明：不放弃一丝生的希望</t>
+  </si>
+  <si>
+    <t>今天（3月28日），国务院联防联控机制新闻发布会介绍了疫情最新进展，以及恢复商品流通和商业秩序的情况。截至3月27日24时，31个省（区、市）和新疆生产建设兵团累计报告确诊病例81394例，其中累计报告境外输入确诊病例649例；当日新增确诊病例54例，均为境外输入病例；现有确诊病例3128例，其中重症病例921例；累计死亡病例3295例，当日新增3例（全部为湖北病例）；累计治愈出院病例74971例，当日新增383例；现有疑似病例184例，当日新增29例。3月27日0-24时，湖北无新增确诊病例，无新增疑似病例，无现有疑似病例。商务部介绍，3月份以来，流通企业复工水平稳步提高，粮油、蔬菜等生活必需品价格全面回落。国家税务总局介绍，已对生活服务业小微企业出台了一系列税费支持政策，帮助企业渡过难关。</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：20省份和新疆生产建设兵团超过28天无新增本土确诊病例</t>
+  </si>
+  <si>
+    <t>响应党中央号召，连日来，全国广大共产党员继续踊跃捐款，表达对新冠肺炎疫情防控工作的支持。据统计，截至3月26日，全国已经有7901万多名党员自愿捐款82.6亿元。捐款活动仍在进行中。</t>
+  </si>
+  <si>
+    <t>全国7901万多名党员踊跃捐款支持疫情防控工作</t>
+  </si>
+  <si>
+    <t>世界卫生组织27日的数据显示，全球新冠肺炎确诊病例已经超过51万例，已有201个国家和地区出现新冠肺炎病例。世界卫生组织公布的统计数据显示，全球确诊病例已达到512701例，死亡23495例，中国以外新冠肺炎确诊约43万例。美国确诊病例超过10万例据美国约翰斯·霍普金斯大学统计，美国确诊病例达到104837例，死亡1711例。单日增加病例接近20000例。其中，疫情最严重的纽约州确诊病例超过46000例。在纽约州的疫情中心纽约市，确诊染病的警务人员就超过了500人。疫情还在从美国东部逐渐向中部、南部等地区蔓延。27日公布的一份调查报告显示，全美参与调查的213个城市的官员中，有近200个城市的官员表示目前急需口罩、呼吸机、急救设备等物资。此外，“西奥多·罗斯福”号航母出现新冠肺炎疫情后，另一艘美国航母、部署在日本横须贺基地的“罗纳德·里根”号也出现了2例确诊病例，该基地目前已经封锁。多国疫情蔓延 继续加大防控举措在欧洲疫情最严重的意大利，累计确诊病例已经达到86498例，死亡病例9134例。意大利卫生部的官员当天表示，正在将一些患者从感染率最高的伦巴第大区转移到其他地区的重症监护室，以减轻医疗系统的负担。法国27日将全国范围内的限制出行措施延长两周至4月15日。同一天，西班牙卫生部确认，该国已有超过9000多名医护人员感染，占到了总感染人数的14.7%。此外，当地时间27日，出现疫情的“赞丹”号邮轮驶入巴拿马海域，但被拒绝通过巴拿马运河。邮轮所属的荷美邮轮公司方面表示，目前船上至少2人新冠病毒检测结果呈阳性。该邮轮载有1243名乘客及586名船员，主要来自美国、澳大利亚、英国、荷兰等国。邮轮于本月7日从阿根廷出发。受疫情影响，多个港口拒绝其靠岸。</t>
+  </si>
+  <si>
+    <t>世卫：全球确诊病例超51万</t>
+  </si>
+  <si>
+    <t>近日，一些外国政党政要致电致函中共中央对外联络部，赞赏中国共产党同各方及时分享抗击新冠肺炎疫情的经验做法，积极推动国际抗疫合作，生动践行了人类命运共同体的理念。俄罗斯联邦共产党中央委员会主席久加诺夫表示，我们为中国人民抗疫斗争取得的重要成果感到十分高兴。中国还积极帮助其他国家抗击疫情，以实际行动印证了人类命运共同体的理念，展现了中国共产党的国际情怀。全球战“疫”仍在继续，中国的抗疫成就为世界注入了信心。尼泊尔共产党（马列）总书记梅纳利表示，疫情是人类共同的敌人，世界各国应该合作抗疫，而不是制造偏见和指责别人。将疫情政治化是非常错误的。在习近平总书记的领导下，中国正引领构建人类卫生健康共同体，我们呼吁世界各国政府和民众支持并参与中国提出的倡议。泰国为泰党战略委员会副主席、前副总理颇钦表示，全世界人民都将意识到，构建人类命运共同体是实现和平、和谐、繁荣的必要前提。我们坚决反对将公共卫生问题政治化，坚决抵制歧视任何国家、地区和族群的言行，坚决反对破坏国际抗疫合作。刚果（金）争取重建与民主人民党主席、前总统卡比拉表示，中国共产党始终把人民生命安全和身体健康放在首位，并与国际社会积极合作维护全人类的健康福祉。习近平总书记倡导的人类命运共同体是各国共建繁荣、稳定、团结家园的最佳途径。坦桑尼亚革命党总书记巴希鲁表示，在坦桑尼亚出现新冠肺炎病例之际，中国共产党来信介绍经验做法正当其时，将有力帮助坦桑尼亚革命党和政府战胜疫情。我们愿同中国共产党齐心协力，共克时艰。哥斯达黎加广泛阵线总书记奥尔特加表示，我们真诚感谢中国慷慨援助哥斯达黎加抗击疫情，这充分体现了两国人民的友好情谊和团结精神。一些别有用心的人质疑中国取得的抗疫成果，我们对此坚决反对。德国联邦议院社民党党团主席米策尼希表示，中国共产党分享的抗疫经验和做法令我们获益良多。这场疫情波及全世界，各国必须守望相助，不断深化国际合作。此外，缅甸联邦改善党主席瑞曼、肯尼亚朱比利党总书记图朱、黎巴嫩未来阵线主席萨阿德·哈里里、白俄罗斯总统办公厅主任谢尔格延科等政党政要也来电来函，祝贺中国疫情防控取得重要进展，期盼中国在全球抗疫合作中发挥更大作用。</t>
+  </si>
+  <si>
+    <t>外国政党政要积极评价中方在抗疫合作中践行人类命运共同体理念</t>
+  </si>
+  <si>
+    <t>今天（3月29日），国务院联防联控机制新闻发布会介绍了疫情最新进展，以及提升国际航空货运能力、稳定供应链的情况。截至3月28日24时，31个省（区、市）和新疆生产建设兵团累计报告确诊病例81439例，其中累计报告境外输入确诊病例693例；当日新增确诊病例45例，其中境外输入病例44例，本土病例1例（为河南病例）；现有确诊病例2691例，其中重症病例742例；累计死亡病例3300例，当日新增5例（全部为湖北病例）；累计治愈出院病例75448例，当日新增477例；现有疑似病例174例，当日新增28例。3月28日0-24时，湖北无新增确诊病例，无新增疑似病例，无现有疑似病例。国家发展改革委、中国民用航空局、国家邮政局等部门介绍，为确保疫情期间国际航空货运供应链稳定，我国大力增加航空货运运力供给、持续降低航空物流成本，目前中外航空公司国际全货运航班将增至每周930班，接近疫情前水平。</t>
+  </si>
+  <si>
+    <t>国务院联防联控机制新闻发布会：现有确诊病例降至三千例以下</t>
+  </si>
+  <si>
+    <t>疫情发生以来，全国和地方各级人大代表、政协委员积极投入疫情防控和救治一线，及时提出建设性意见建议等，在抗疫一线履职担当。全国人大代表罗杰，是湖北十堰市太和医院的党委书记，疫情发生后，罗杰担任了十堰市救治专家组组长，他主持制定了十堰市新冠肺炎分检预诊、诊断、治疗和转诊的规范流程。罗杰所在的十堰市太和医院主要接收危重症患者，救治实行一人一方案，组织多学科会诊，每天两次召开危重病人的病例讨论会，这些措施有效降低了危重症患者的病亡率。同样在抗疫一线履职担当的全国政协委员黄宝荣，是甘肃白银市副市长，为了更好地防控疫情，白银市实施了网格化管理，每个网格长管理不得超过20户。随着疫情防控逐渐好转，黄宝荣希望能把这种网格化管理运用到脱贫攻坚、乡村振兴中来。</t>
+  </si>
+  <si>
+    <t>代表委员在抗疫一线履职担当</t>
+  </si>
+  <si>
+    <t>近日，在贵州援鄂医疗队支援的湖北鄂州雷山医院，又一位患者痊愈出院了。这位患者的身份比较特别，他既是鄂州人，还是半个贵州人。近日在湖北鄂州，经贵州援鄂医疗队连续多日的精心救治，罹患新冠肺炎的贵州省雷山县丹江镇脚猛村驻村第一书记刘韬，和他的父亲、爱人、儿子都治愈出院了。一个贵州的驻村书记，怎么会在湖北鄂州得了新冠肺炎？又被贵州医疗队给治好了呢？这一切都要从2018年5月说起，当时，在北京中国农业银行总行任职的湖北鄂州人刘韬，被派驻到贵州省雷山县脚猛村担任第一书记，带领全村人向贫困发起攻坚。今年春节，刘韬从贵州返回鄂州老家过年，不料，一家人全都感染新冠肺炎。被收治到鄂州雷山医院后，刘韬发现，照料他们的医护人员，竟然是来自自己驻村的“第二故乡”贵州。刘韬所帮扶的雷山县丹江镇脚猛村被誉为“雷公山下的葡萄村”，全村有183户种植葡萄。刘韬住院治疗期间，正是葡萄剪枝的时节，病床上的他放心不下，时不时地就给村里打电话询问情况。从刘韬患病到出院，远在千里之外的贵州乡亲们始终牵挂着他们的第一书记。村民们从心眼里认可这位书记，在他的牵线搭桥下，一笔笔资金、一个个项目先后落地。2019年，全村通过葡萄产业带动农户户均增收达4000元以上，已成功实现了贫困村和贫困人口“双清零”目标。刘韬说，等自己完全康复，就会尽快回到脚猛村。</t>
+  </si>
+  <si>
+    <t>【新闻特写】出院的“第一书记”：早日回贵州扶贫</t>
+  </si>
+  <si>
+    <t>今天（3月29日）的《一线抗疫群英谱》我们一起来认识一位90后海关关员胡银宽，在广州白云国际机场，他和同事们一起把守着防控境外疫情输入的第一关，他说站在国门前，就要为人民拦住风险。广州白云国际机场，华南地区最大的进出境空港口岸，航线通达国内外220个通航点，受新冠肺炎疫情影响，高峰期时，这里每小时仍有超过数百名旅客入境。胡银宽是广州白云机场海关的一名卫生检疫关员，旅客自廊桥一下来，立即进入测温通道，胡银宽就开始忙着健康申明卡初筛和再次核验，进行流行病学调查。几天前，在排查过程中，一名境外回国的旅客引起了胡银宽的注意。细心的胡银宽没有放松警惕而是继续追问，得知旅客在国外居住的社区有阳性病例报告，胡银宽第一时间判定她有染疫可能。过去奋战的40多天，胡银宽就是这样如履薄冰，他说，疫情防控没有小事，只有每个细节做到位了，才能遏制住疫情在口岸传播。</t>
+  </si>
+  <si>
+    <t>【一线抗疫群英谱】胡银宽：在国门前挡住风险</t>
+  </si>
+  <si>
+    <t>世界卫生组织28日公布的数据显示，全球新冠肺炎确诊病例已超过57万例，中国以外确诊病例超过49万例。世卫组织的统计数据显示，全球新冠肺炎确诊病例已达到575444例，24小时内新增62743例；累计死亡病例26654例。美国累计确诊病例超12万例据美国约翰斯·霍普金斯大学统计，美国累计确诊病例已超过12万，累计死亡病例超过2000例。美国政府已宣布17个州和地区为应对新冠肺炎疫情“灾难状态”。纽约州28日宣布，该州累计新冠肺炎确诊病例超过52000例，其中，纽约市确诊病例已突破3万例。 美国疾控中心28日发布旅行建议，鉴于疫情严重，敦促纽约州、新泽西州、康涅狄格州的居民在14天内避免不必要的国内旅行。疫情持续蔓延 多国全力应对在疫情严重的欧洲，意大利确诊病例已超过9万例。意大利政府28日出台新规定，再次强化入境人员管控，要求从即日起乘坐各种交通工具的所有入境意大利人员填写个人声明，说明旅行目的、进行隔离的住址。 西班牙首相桑切斯28日宣布，所有从事非必要经济活动的人未来两周必须待在家中。法国总理菲利普28日表示，当前法国疫情确诊人数每三到四天就会翻倍，未来两周将是法国抗击新冠疫情最艰难的时期。非洲一些国家近两日新冠肺炎确诊病例继续增加。马里、多哥两国首次报告死亡病例，刚果（布）、尼日尔、安哥拉等多国宣布进入紧急状态。拉美地区累计确诊病例28日超过13000例。巴西、智利、厄瓜多尔病例数较多。28日，搭载了至少2名新冠肺炎确诊患者的荷美邮轮公司“赞丹”号邮轮获得巴拿马政府允许，通过巴拿马运河。荷美邮轮公司表示，邮轮上有4名老人死亡，但死因还有待确认。另据巴拿马海事管理机构表示，邮轮上有401名无任何症状的乘客已被转移到另一艘邮轮。“赞丹”号邮轮计划通过巴拿马运河，驶往美国佛罗里达州劳德代尔堡。</t>
+  </si>
+  <si>
+    <t>世卫组织：全球累计确诊超过57万例</t>
   </si>
 </sst>
 </file>
@@ -3657,15 +3969,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D563"/>
+  <dimension ref="A1:E615"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="B601" sqref="B600:B601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59.875" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -9852,6 +10164,579 @@
       </c>
       <c r="C563" s="1" t="s">
         <v>1087</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>20200323</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E591" s="1"/>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>1197</v>
       </c>
     </row>
   </sheetData>
